--- a/Slide Timings.xlsx
+++ b/Slide Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott Gurney\Documents\GitHub\Synoptic-Project-Year1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36393FA5-3A81-465E-BF88-21C4CA1314C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CA424-EDD0-4867-B4B6-9DEC898D0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{785604B7-E6C1-49D7-863F-27DE63617D56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Number</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Ellie</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Lyra</t>
+  </si>
+  <si>
+    <t>Ollie</t>
   </si>
 </sst>
 </file>
@@ -301,9 +310,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -314,9 +321,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -325,9 +330,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -371,27 +374,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -715,7 +698,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,7 +872,7 @@
         <v>9.7222222222222219E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1019,57 +1002,59 @@
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="3">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>2.0949074074074073E-3</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="1">
-        <f>SUM(C11:C19)</f>
-        <v>1.1226851851851851E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="12">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="1">
+        <f>SUM(C11:C20)</f>
+        <v>1.1805555555555556E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>1.0416666666666667E-4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>2.2569444444444442E-3</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
@@ -1199,8 +1184,8 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="1">
-        <f>SUM(C20:C29)</f>
-        <v>1.0532407407407407E-3</v>
+        <f>SUM(C21:C29)</f>
+        <v>9.953703703703702E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,7 +1202,9 @@
         <f t="shared" si="0"/>
         <v>3.4027777777777771E-3</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
@@ -1267,37 +1254,43 @@
       </c>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1">
+        <f>SUM(C30:C34)</f>
+        <v>1.2962962962962963E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0856481481481481E-3</v>
-      </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.5879629629629635E-4</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4444444444444444E-3</v>
-      </c>
-      <c r="E35" s="15"/>
+      <c r="C35" s="8">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="0"/>
+        <v>6.5277777777777782E-3</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
@@ -1311,23 +1304,20 @@
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
-        <v>4.4791666666666669E-3</v>
+        <v>6.5625000000000006E-3</v>
       </c>
       <c r="E36" s="16"/>
-      <c r="F36" s="1">
-        <f>SUM(C30:C36)</f>
-        <v>1.3310185185185185E-3</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E20:E29"/>
-    <mergeCell ref="E30:E36"/>
+  <mergeCells count="5">
     <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="top10" dxfId="0" priority="18" rank="5"/>
+    <cfRule type="top10" dxfId="0" priority="19" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
